--- a/Coffey R00 Master Key.xlsx
+++ b/Coffey R00 Master Key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\Documents\GitHub\CoffeyBehavior_RatEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A745C48-B680-4A05-B384-4449E21BA9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0107BC-52D7-43C0-946D-6D9D892D37EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="59">
   <si>
     <t>Tag Number</t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t>Afternoon</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>euthanized 3/24/25 (bad implant)</t>
+  </si>
+  <si>
+    <t>{0, 1}</t>
+  </si>
+  <si>
+    <t>{2}</t>
   </si>
 </sst>
 </file>
@@ -287,9 +299,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}" name="Table1" displayName="Table1" ref="A1:V48" totalsRowShown="0">
-  <autoFilter ref="A1:V48" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}" name="Table1" displayName="Table1" ref="A1:W48" totalsRowShown="0">
+  <autoFilter ref="A1:W48" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}"/>
+  <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{60D7D7A6-CBAB-41C3-A922-12D9BB352B61}" name="Tag Number"/>
     <tableColumn id="10" xr3:uid="{CAA37174-1539-4368-836A-0F1CD6010E9C}" name="Run"/>
     <tableColumn id="2" xr3:uid="{AAA8256D-38B9-490E-86D1-0A386D831626}" name="Tag Color"/>
@@ -311,7 +323,8 @@
     <tableColumn id="18" xr3:uid="{567717B4-321E-4E6A-A33E-5FEB4544E2B6}" name="RemoveSession"/>
     <tableColumn id="11" xr3:uid="{0AFA8CA7-4137-4911-9BDA-2CA56DB483CB}" name="MedPC Data Folder"/>
     <tableColumn id="9" xr3:uid="{EE0658C2-4F47-4187-9F03-0604EA21891A}" name="USV Data Folder"/>
-    <tableColumn id="12" xr3:uid="{3692F92B-7339-4679-8FAA-0EBB775BF247}" name="Video Data Folder"/>
+    <tableColumn id="20" xr3:uid="{DA846ABF-3C4A-46BA-958E-0334DFCFCAEE}" name="Video Data Folder"/>
+    <tableColumn id="12" xr3:uid="{3692F92B-7339-4679-8FAA-0EBB775BF247}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -580,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,22 +605,25 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
     <col min="14" max="15" width="18.5703125" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
     <col min="17" max="18" width="22.140625" customWidth="1"/>
-    <col min="19" max="20" width="122.5703125" customWidth="1"/>
-    <col min="21" max="21" width="135.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" customWidth="1"/>
+    <col min="21" max="21" width="23.7109375" customWidth="1"/>
+    <col min="22" max="22" width="25.5703125" customWidth="1"/>
+    <col min="23" max="23" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,8 +690,11 @@
       <c r="V1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>33</v>
       </c>
@@ -710,7 +729,7 @@
         <v>17</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
         <v>53</v>
@@ -728,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>34</v>
       </c>
@@ -766,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N3" t="s">
         <v>53</v>
@@ -787,7 +806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>35</v>
       </c>
@@ -822,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
         <v>53</v>
@@ -844,8 +863,9 @@
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>36</v>
       </c>
@@ -880,7 +900,7 @@
         <v>17</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N5" t="s">
         <v>53</v>
@@ -901,7 +921,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>37</v>
       </c>
@@ -936,7 +956,7 @@
         <v>17</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N6" t="s">
         <v>53</v>
@@ -957,7 +977,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>38</v>
       </c>
@@ -992,7 +1012,7 @@
         <v>17</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N7" t="s">
         <v>53</v>
@@ -1013,7 +1033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>39</v>
       </c>
@@ -1048,7 +1068,7 @@
         <v>17</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
         <v>53</v>
@@ -1069,7 +1089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40</v>
       </c>
@@ -1104,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
         <v>53</v>
@@ -1122,10 +1142,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="W9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>41</v>
       </c>
@@ -1160,7 +1183,7 @@
         <v>17</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" t="s">
         <v>54</v>
@@ -1181,7 +1204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>42</v>
       </c>
@@ -1216,7 +1239,7 @@
         <v>17</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N11" t="s">
         <v>54</v>
@@ -1237,7 +1260,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>43</v>
       </c>
@@ -1272,7 +1295,7 @@
         <v>17</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
         <v>54</v>
@@ -1293,7 +1316,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>44</v>
       </c>
@@ -1328,7 +1351,7 @@
         <v>17</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N13" t="s">
         <v>54</v>
@@ -1349,7 +1372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>45</v>
       </c>
@@ -1384,7 +1407,7 @@
         <v>17</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N14" t="s">
         <v>54</v>
@@ -1405,7 +1428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>46</v>
       </c>
@@ -1440,7 +1463,7 @@
         <v>17</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N15" t="s">
         <v>54</v>
@@ -1461,7 +1484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>47</v>
       </c>
@@ -1496,7 +1519,7 @@
         <v>17</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
         <v>54</v>
@@ -1517,7 +1540,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>48</v>
       </c>
@@ -1552,7 +1575,7 @@
         <v>17</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
         <v>54</v>
@@ -1573,57 +1596,58 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">

--- a/Coffey R00 Master Key.xlsx
+++ b/Coffey R00 Master Key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\Documents\GitHub\CoffeyBehavior_RatEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0107BC-52D7-43C0-946D-6D9D892D37EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D1D380-F3D9-4BA6-96D6-5FF5CC2C784F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="67">
   <si>
     <t>Tag Number</t>
   </si>
@@ -212,13 +212,37 @@
   </si>
   <si>
     <t>{2}</t>
+  </si>
+  <si>
+    <t>3) pressed inactive lever incessantly all day</t>
+  </si>
+  <si>
+    <t>3) chewed through cord mid-session.  5) unplugged midsession, won't stop going at cord. Unplugged hereafter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9) messing with cord a lot, many interventions, kept him plugged in. </t>
+  </si>
+  <si>
+    <t>9) connector fell off implant mid-session (reattached later in day).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) focused on jumping/grappling at the ceiling hole/grabbing cord whole session. 8) unplugged mid-session, jumping/cord-grabbing. 9) unplugged mid-session, jumping/cord-grabbing again. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8) connector fell off (***when?). 9) ran unplugged, connector reattached after session. </t>
+  </si>
+  <si>
+    <t>2) Connector fell off implant during set-up, didn't run. Reattached later in the day. 5) Unplugged midsession, won't stop going at cord. Unplugged hereafter.</t>
+  </si>
+  <si>
+    <t>7) Unplugged midsession, going after cord. 8) Unplugged whole session. 9) Unplugged mid-session. Unplugged hereafter.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +260,28 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,12 +320,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -596,7 +647,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,14 +664,14 @@
     <col min="11" max="11" width="22.28515625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="15" width="18.5703125" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="17" max="18" width="22.140625" customWidth="1"/>
+    <col min="14" max="15" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="22.140625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="15.85546875" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" customWidth="1"/>
-    <col min="21" max="21" width="23.7109375" customWidth="1"/>
-    <col min="22" max="22" width="25.5703125" customWidth="1"/>
-    <col min="23" max="23" width="63.28515625" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="23.7109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="25.5703125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="181.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -694,960 +745,984 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>33</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>45719</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2">
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="5">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" t="b">
+      <c r="O2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="W2" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>34</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>45719</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3">
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="5">
         <v>12</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" t="b">
+      <c r="O3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="W3" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>35</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="8">
         <v>45719</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4">
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="7">
         <v>5</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" t="b">
+      <c r="O4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+    </row>
+    <row r="5" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>36</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>45719</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5">
+      <c r="I5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="7">
         <v>6</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" t="b">
+      <c r="O5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>37</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>45720</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6">
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="5">
         <v>13</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" t="b">
+      <c r="O6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="W6" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>38</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>45720</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7">
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="5">
         <v>14</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" t="b">
+      <c r="O7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="W7" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>39</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="8">
         <v>45720</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8">
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="7">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" t="b">
+      <c r="O8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>40</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="8">
         <v>45720</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9">
+      <c r="I9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="7">
         <v>4</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" t="b">
+      <c r="O9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>41</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <v>45720</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10">
+      <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="5">
         <v>11</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" t="b">
+      <c r="O10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>42</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>45720</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11">
+      <c r="I11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="5">
         <v>12</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" t="b">
+      <c r="O11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>43</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="8">
         <v>45722</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12">
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="7">
         <v>5</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12" t="b">
+      <c r="O12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>44</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="8">
         <v>45722</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13">
+      <c r="I13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="7">
         <v>6</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" t="b">
+      <c r="O13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>45</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <v>45722</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14">
+      <c r="J14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="5">
         <v>13</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O14" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" t="b">
+      <c r="O14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="W14" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>46</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <v>45722</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15">
+      <c r="I15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="5">
         <v>14</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O15" t="b">
-        <v>1</v>
-      </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" t="b">
+      <c r="O15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="W15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>47</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="8">
         <v>45722</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16">
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="7">
         <v>3</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O16" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16" t="b">
+      <c r="O16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="W16" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>48</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="8">
         <v>45722</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17">
+      <c r="I17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
         <v>4</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O17" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17" t="b">
+      <c r="O17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">

--- a/Coffey R00 Master Key.xlsx
+++ b/Coffey R00 Master Key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\Documents\GitHub\CoffeyBehavior_RatEdition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/692dbbe6f7020b1f/Documents/GitHub/CoffeyBehavior_RatEdition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D1D380-F3D9-4BA6-96D6-5FF5CC2C784F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{B5D1D380-F3D9-4BA6-96D6-5FF5CC2C784F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F38E375-CC5B-4055-98FE-CCE5D41B9FF4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="70">
   <si>
     <t>Tag Number</t>
   </si>
@@ -217,25 +217,34 @@
     <t>3) pressed inactive lever incessantly all day</t>
   </si>
   <si>
-    <t>3) chewed through cord mid-session.  5) unplugged midsession, won't stop going at cord. Unplugged hereafter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9) messing with cord a lot, many interventions, kept him plugged in. </t>
-  </si>
-  <si>
-    <t>9) connector fell off implant mid-session (reattached later in day).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7) focused on jumping/grappling at the ceiling hole/grabbing cord whole session. 8) unplugged mid-session, jumping/cord-grabbing. 9) unplugged mid-session, jumping/cord-grabbing again. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8) connector fell off (***when?). 9) ran unplugged, connector reattached after session. </t>
-  </si>
-  <si>
-    <t>2) Connector fell off implant during set-up, didn't run. Reattached later in the day. 5) Unplugged midsession, won't stop going at cord. Unplugged hereafter.</t>
-  </si>
-  <si>
-    <t>7) Unplugged midsession, going after cord. 8) Unplugged whole session. 9) Unplugged mid-session. Unplugged hereafter.</t>
+    <t xml:space="preserve">13) ran unplugged by accident. </t>
+  </si>
+  <si>
+    <t>14) video started late</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never plugged in, cap glued on. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9) connector fell off implant mid-session (reattached later in day). 11) whole exterior of the implant came off (pre-session), dental cement and glue intact. Not plugged in again. </t>
+  </si>
+  <si>
+    <t>15) came unplugged in the last hour</t>
+  </si>
+  <si>
+    <t>7) focused on jumping/grappling at the ceiling hole/grabbing cord whole session. 8) unplugged mid-session, jumping/cord-grabbing. 9) unplugged mid-session, jumping/cord-grabbing again. Unplugged hereafter. 14) replugged in. 15) came unplugged in the last half hour.</t>
+  </si>
+  <si>
+    <t>7) Unplugged midsession, going after cord. No video. 8) Unplugged whole session. 9) Unplugged mid-session. Unplugged hereafter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) no video. 8) connector fell off presession. 9) ran unplugged, connector reattached after session. </t>
+  </si>
+  <si>
+    <t>3) chewed through cord mid-session.  4) chewed through cord mid-session. 5) unplugged midsession, won't stop going at cord. Unplugged hereafter. 7) no video.</t>
+  </si>
+  <si>
+    <t>2) Connector fell off implant during set-up, didn't run. Reattached later in the day. 4) chewed through cord midsession. 5) Unplugged midsession, won't stop going at cord. Unplugged hereafter. 7) no video.</t>
   </si>
 </sst>
 </file>
@@ -347,6 +356,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,7 +660,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +684,7 @@
     <col min="20" max="20" width="21.5703125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="23.7109375" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="25.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="181.28515625" customWidth="1"/>
+    <col min="23" max="23" width="204.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -801,7 +814,7 @@
         <v>58</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -921,6 +934,9 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
+      <c r="W4" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -977,6 +993,9 @@
       <c r="S5" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="W5" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1034,7 +1053,7 @@
         <v>51</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1093,7 +1112,7 @@
         <v>51</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1151,6 +1170,9 @@
       <c r="S8" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="W8" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -1266,6 +1288,9 @@
       <c r="S10" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="W10" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1322,6 +1347,9 @@
       <c r="S11" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="W11" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -1434,6 +1462,9 @@
       <c r="S13" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="W13" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1490,9 +1521,6 @@
       <c r="S14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="5" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="15" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1550,7 +1578,7 @@
         <v>51</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1668,7 +1696,7 @@
         <v>51</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -1685,6 +1713,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
+      <c r="S21" s="7"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>

--- a/Coffey R00 Master Key.xlsx
+++ b/Coffey R00 Master Key.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/692dbbe6f7020b1f/Documents/GitHub/CoffeyBehavior_RatEdition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\Documents\GitHub\CoffeyBehavior_RatEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{B5D1D380-F3D9-4BA6-96D6-5FF5CC2C784F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F38E375-CC5B-4055-98FE-CCE5D41B9FF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CAC3CC-8D70-4B48-8827-89154E9FB88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,10 +356,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,22 +665,22 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="15" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="22.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="18.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="18" width="22.140625" customWidth="1"/>
     <col min="19" max="19" width="15.85546875" customWidth="1"/>
     <col min="20" max="20" width="21.5703125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="23.7109375" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="25.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="204.85546875" customWidth="1"/>
+    <col min="23" max="23" width="240.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
